--- a/spss/作业/spss项目/数据源/清洗关键词v0.1/数据挖掘清洗关键词2.xlsx
+++ b/spss/作业/spss项目/数据源/清洗关键词v0.1/数据挖掘清洗关键词2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPython\miniweb\dataAnalysis\dataAnalysis\spss\作业\spss项目\数据源\清洗关键词v0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01298DA-A5D3-425D-90DA-684F99B61F6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC90F17B-7BB2-4BBA-B69D-F29EFE6628E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4204,10 +4204,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TENSOR0LOW</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>STORM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4245,6 +4241,10 @@
   </si>
   <si>
     <t>PYTORCH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENSORFLOW</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4655,7 +4655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4666,16 +4666,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D64A02-3050-484C-920B-03FB8CCB9966}">
   <dimension ref="A1:BA447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AX11" sqref="AX11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="12" max="12" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1392</v>
+        <v>1402</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>22</v>
@@ -4758,16 +4758,16 @@
         <v>24</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>1396</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>25</v>
@@ -4776,7 +4776,7 @@
         <v>26</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>27</v>
@@ -4785,7 +4785,7 @@
         <v>28</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>29</v>
@@ -4797,10 +4797,10 @@
         <v>31</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>1400</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>32</v>
@@ -4809,10 +4809,10 @@
         <v>33</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>1401</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1402</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>34</v>
@@ -4836,7 +4836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>199</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>209</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>213</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>216</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>235</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>250</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>265</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>271</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>277</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>282</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>287</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>296</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>302</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>309</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>318</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>324</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>329</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>331</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>334</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>337</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>340</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>343</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>345</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>347</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>354</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>359</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>362</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -18360,7 +18360,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="87" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>373</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>377</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>380</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>309</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>386</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>388</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>398</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>403</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>409</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>414</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>419</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>309</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>431</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>434</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>439</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>441</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>443</v>
       </c>
@@ -21893,7 +21893,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>359</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>449</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>452</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>457</v>
       </c>
@@ -22698,7 +22698,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>102</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>460</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>102</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>465</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -23664,7 +23664,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>480</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>102</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>102</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>213</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>490</v>
       </c>
@@ -24630,7 +24630,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>492</v>
       </c>
@@ -24791,7 +24791,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>498</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="127" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>102</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>503</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>508</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>102</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>515</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>102</v>
       </c>
@@ -25918,7 +25918,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="133" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>522</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>528</v>
       </c>
@@ -26401,7 +26401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>529</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>532</v>
       </c>
@@ -26723,7 +26723,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>431</v>
       </c>
@@ -26884,7 +26884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>102</v>
       </c>
@@ -27045,7 +27045,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>538</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>102</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>102</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>549</v>
       </c>
@@ -27689,7 +27689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -28011,7 +28011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>558</v>
       </c>
@@ -28172,7 +28172,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>563</v>
       </c>
@@ -28333,7 +28333,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="148" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>566</v>
       </c>
@@ -28494,7 +28494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>569</v>
       </c>
@@ -28655,7 +28655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>309</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -28977,7 +28977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>574</v>
       </c>
@@ -29138,7 +29138,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>576</v>
       </c>
@@ -29299,7 +29299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>578</v>
       </c>
@@ -29460,7 +29460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="155" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>582</v>
       </c>
@@ -29621,7 +29621,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="156" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -29782,7 +29782,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>585</v>
       </c>
@@ -29943,7 +29943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>586</v>
       </c>
@@ -30104,7 +30104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>587</v>
       </c>
@@ -30265,7 +30265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>590</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>591</v>
       </c>
@@ -30587,7 +30587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -30748,7 +30748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>594</v>
       </c>
@@ -30909,7 +30909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>595</v>
       </c>
@@ -31070,7 +31070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>594</v>
       </c>
@@ -31231,7 +31231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>598</v>
       </c>
@@ -31392,7 +31392,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>595</v>
       </c>
@@ -31553,7 +31553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>600</v>
       </c>
@@ -31714,7 +31714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>601</v>
       </c>
@@ -31875,7 +31875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>602</v>
       </c>
@@ -32036,7 +32036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>603</v>
       </c>
@@ -32197,7 +32197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>604</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>605</v>
       </c>
@@ -32519,7 +32519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>606</v>
       </c>
@@ -32680,7 +32680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>609</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>612</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>614</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="178" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -33324,7 +33324,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>388</v>
       </c>
@@ -33485,7 +33485,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="180" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>616</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>616</v>
       </c>
@@ -33807,7 +33807,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>617</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>619</v>
       </c>
@@ -34129,7 +34129,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>388</v>
       </c>
@@ -34290,7 +34290,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="185" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>309</v>
       </c>
@@ -34451,7 +34451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="186" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>616</v>
       </c>
@@ -34612,7 +34612,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>309</v>
       </c>
@@ -34773,7 +34773,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="188" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>614</v>
       </c>
@@ -34934,7 +34934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="189" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>538</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="190" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>102</v>
       </c>
@@ -35256,7 +35256,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>62</v>
       </c>
@@ -35417,7 +35417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1367</v>
       </c>
@@ -35578,7 +35578,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="193" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>639</v>
       </c>
@@ -35739,7 +35739,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="194" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -35900,7 +35900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>648</v>
       </c>
@@ -36061,7 +36061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>609</v>
       </c>
@@ -36222,7 +36222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>656</v>
       </c>
@@ -36383,7 +36383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="198" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>660</v>
       </c>
@@ -36544,7 +36544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>102</v>
       </c>
@@ -36705,7 +36705,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="200" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>666</v>
       </c>
@@ -36866,7 +36866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="201" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>102</v>
       </c>
@@ -37027,7 +37027,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="202" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>102</v>
       </c>
@@ -37188,7 +37188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>102</v>
       </c>
@@ -37349,7 +37349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>102</v>
       </c>
@@ -37510,7 +37510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>685</v>
       </c>
@@ -37671,7 +37671,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="206" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>102</v>
       </c>
@@ -37832,7 +37832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>102</v>
       </c>
@@ -37993,7 +37993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>102</v>
       </c>
@@ -38154,7 +38154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>102</v>
       </c>
@@ -38315,7 +38315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>102</v>
       </c>
@@ -38476,7 +38476,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="211" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>102</v>
       </c>
@@ -38637,7 +38637,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>712</v>
       </c>
@@ -38798,7 +38798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>102</v>
       </c>
@@ -38959,7 +38959,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="214" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>720</v>
       </c>
@@ -39120,7 +39120,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="215" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>721</v>
       </c>
@@ -39281,7 +39281,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>725</v>
       </c>
@@ -39442,7 +39442,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>712</v>
       </c>
@@ -39603,7 +39603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>730</v>
       </c>
@@ -39764,7 +39764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="219" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>735</v>
       </c>
@@ -39925,7 +39925,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="220" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>739</v>
       </c>
@@ -40086,7 +40086,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="221" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>373</v>
       </c>
@@ -40247,7 +40247,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="222" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>746</v>
       </c>
@@ -40408,7 +40408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>749</v>
       </c>
@@ -40569,7 +40569,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="224" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>102</v>
       </c>
@@ -40730,7 +40730,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="225" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>102</v>
       </c>
@@ -40891,7 +40891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="226" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>760</v>
       </c>
@@ -41052,7 +41052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="227" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>763</v>
       </c>
@@ -41213,7 +41213,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="228" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>767</v>
       </c>
@@ -41374,7 +41374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>102</v>
       </c>
@@ -41535,7 +41535,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>102</v>
       </c>
@@ -41696,7 +41696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="231" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>775</v>
       </c>
@@ -41857,7 +41857,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>102</v>
       </c>
@@ -42018,7 +42018,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="233" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>783</v>
       </c>
@@ -42179,7 +42179,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>373</v>
       </c>
@@ -42340,7 +42340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>789</v>
       </c>
@@ -42501,7 +42501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>619</v>
       </c>
@@ -42662,7 +42662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>609</v>
       </c>
@@ -42823,7 +42823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="238" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>797</v>
       </c>
@@ -42984,7 +42984,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>798</v>
       </c>
@@ -43145,7 +43145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>801</v>
       </c>
@@ -43306,7 +43306,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="241" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>102</v>
       </c>
@@ -43467,7 +43467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>102</v>
       </c>
@@ -43628,7 +43628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>41</v>
       </c>
@@ -43789,7 +43789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>41</v>
       </c>
@@ -43950,7 +43950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -44111,7 +44111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>102</v>
       </c>
@@ -44272,7 +44272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>457</v>
       </c>
@@ -44433,7 +44433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>826</v>
       </c>
@@ -44594,7 +44594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>41</v>
       </c>
@@ -44755,7 +44755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>102</v>
       </c>
@@ -44916,7 +44916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="251" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>102</v>
       </c>
@@ -45077,7 +45077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>102</v>
       </c>
@@ -45238,7 +45238,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="253" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>840</v>
       </c>
@@ -45399,7 +45399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="254" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>845</v>
       </c>
@@ -45560,7 +45560,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="255" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>850</v>
       </c>
@@ -45721,7 +45721,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="256" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>855</v>
       </c>
@@ -45882,7 +45882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>858</v>
       </c>
@@ -46043,7 +46043,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="258" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>102</v>
       </c>
@@ -46204,7 +46204,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="259" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -46365,7 +46365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="260" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>867</v>
       </c>
@@ -46526,7 +46526,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="261" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -46687,7 +46687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="262" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>875</v>
       </c>
@@ -46848,7 +46848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="263" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>102</v>
       </c>
@@ -47009,7 +47009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -47170,7 +47170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>884</v>
       </c>
@@ -47331,7 +47331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>329</v>
       </c>
@@ -47492,7 +47492,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="267" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>102</v>
       </c>
@@ -47653,7 +47653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>373</v>
       </c>
@@ -47814,7 +47814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>899</v>
       </c>
@@ -47975,7 +47975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>903</v>
       </c>
@@ -48136,7 +48136,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="271" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>102</v>
       </c>
@@ -48297,7 +48297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>373</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="273" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>373</v>
       </c>
@@ -48619,7 +48619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>102</v>
       </c>
@@ -48780,7 +48780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>912</v>
       </c>
@@ -48941,7 +48941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>52</v>
       </c>
@@ -49102,7 +49102,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="277" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>918</v>
       </c>
@@ -49263,7 +49263,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="278" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -49424,7 +49424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>923</v>
       </c>
@@ -49585,7 +49585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>925</v>
       </c>
@@ -49746,7 +49746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>928</v>
       </c>
@@ -49907,7 +49907,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="282" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>609</v>
       </c>
@@ -50068,7 +50068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>934</v>
       </c>
@@ -50229,7 +50229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -50390,7 +50390,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="285" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>41</v>
       </c>
@@ -50551,7 +50551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>102</v>
       </c>
@@ -50712,7 +50712,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="287" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>946</v>
       </c>
@@ -50873,7 +50873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="288" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>950</v>
       </c>
@@ -51034,7 +51034,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="289" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>309</v>
       </c>
@@ -51195,7 +51195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>102</v>
       </c>
@@ -51356,7 +51356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="291" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>102</v>
       </c>
@@ -51517,7 +51517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>960</v>
       </c>
@@ -51678,7 +51678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>102</v>
       </c>
@@ -51839,7 +51839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>967</v>
       </c>
@@ -52000,7 +52000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>102</v>
       </c>
@@ -52161,7 +52161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>102</v>
       </c>
@@ -52322,7 +52322,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="297" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>102</v>
       </c>
@@ -52483,7 +52483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>102</v>
       </c>
@@ -52644,7 +52644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>981</v>
       </c>
@@ -52805,7 +52805,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="300" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>983</v>
       </c>
@@ -52966,7 +52966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>986</v>
       </c>
@@ -53127,7 +53127,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="302" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>102</v>
       </c>
@@ -53288,7 +53288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>992</v>
       </c>
@@ -53449,7 +53449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>996</v>
       </c>
@@ -53610,7 +53610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>999</v>
       </c>
@@ -53771,7 +53771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="306" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>102</v>
       </c>
@@ -53932,7 +53932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="307" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>102</v>
       </c>
@@ -54093,7 +54093,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="308" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1008</v>
       </c>
@@ -54254,7 +54254,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="309" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1012</v>
       </c>
@@ -54415,7 +54415,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="310" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1015</v>
       </c>
@@ -54576,7 +54576,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="311" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1018</v>
       </c>
@@ -54737,7 +54737,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="312" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>102</v>
       </c>
@@ -54898,7 +54898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="313" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>102</v>
       </c>
@@ -55059,7 +55059,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="314" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>102</v>
       </c>
@@ -55220,7 +55220,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="315" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1031</v>
       </c>
@@ -55381,7 +55381,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="316" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>102</v>
       </c>
@@ -55542,7 +55542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="317" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1036</v>
       </c>
@@ -55703,7 +55703,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="318" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>187</v>
       </c>
@@ -55864,7 +55864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>102</v>
       </c>
@@ -56025,7 +56025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="320" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1048</v>
       </c>
@@ -56186,7 +56186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="321" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>62</v>
       </c>
@@ -56347,7 +56347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="322" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1051</v>
       </c>
@@ -56508,7 +56508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="323" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1055</v>
       </c>
@@ -56669,7 +56669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1059</v>
       </c>
@@ -56830,7 +56830,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="325" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>102</v>
       </c>
@@ -56991,7 +56991,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="326" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>62</v>
       </c>
@@ -57152,7 +57152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="327" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1065</v>
       </c>
@@ -57310,7 +57310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="328" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1066</v>
       </c>
@@ -57471,7 +57471,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="329" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>449</v>
       </c>
@@ -57632,7 +57632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="330" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>102</v>
       </c>
@@ -57793,7 +57793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="331" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>102</v>
       </c>
@@ -57954,7 +57954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>102</v>
       </c>
@@ -58115,7 +58115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="333" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>52</v>
       </c>
@@ -58276,7 +58276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="334" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>41</v>
       </c>
@@ -58437,7 +58437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>52</v>
       </c>
@@ -58598,7 +58598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>102</v>
       </c>
@@ -58759,7 +58759,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="337" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>102</v>
       </c>
@@ -58920,7 +58920,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="338" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>102</v>
       </c>
@@ -59081,7 +59081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1090</v>
       </c>
@@ -59242,7 +59242,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="340" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1090</v>
       </c>
@@ -59400,7 +59400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1095</v>
       </c>
@@ -59561,7 +59561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>309</v>
       </c>
@@ -59722,7 +59722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="343" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1099</v>
       </c>
@@ -59883,7 +59883,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="344" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>62</v>
       </c>
@@ -60044,7 +60044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="345" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1104</v>
       </c>
@@ -60205,7 +60205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="346" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1387</v>
       </c>
@@ -60366,7 +60366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="347" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1110</v>
       </c>
@@ -60527,7 +60527,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="348" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>609</v>
       </c>
@@ -60688,7 +60688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="349" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1119</v>
       </c>
@@ -60849,7 +60849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="350" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>62</v>
       </c>
@@ -61010,7 +61010,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="351" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1122</v>
       </c>
@@ -61171,7 +61171,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="352" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>373</v>
       </c>
@@ -61332,7 +61332,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="353" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1119</v>
       </c>
@@ -61493,7 +61493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="354" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1126</v>
       </c>
@@ -61654,7 +61654,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="355" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -61815,7 +61815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="356" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1129</v>
       </c>
@@ -61976,7 +61976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="357" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1130</v>
       </c>
@@ -62137,7 +62137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="358" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1388</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="359" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1133</v>
       </c>
@@ -62459,7 +62459,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="360" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1135</v>
       </c>
@@ -62620,7 +62620,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="361" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1137</v>
       </c>
@@ -62781,7 +62781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>41</v>
       </c>
@@ -62942,7 +62942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>41</v>
       </c>
@@ -63103,7 +63103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="364" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>41</v>
       </c>
@@ -63264,7 +63264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="365" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>102</v>
       </c>
@@ -63425,7 +63425,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="366" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1148</v>
       </c>
@@ -63586,7 +63586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="367" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>102</v>
       </c>
@@ -63747,7 +63747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="368" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>41</v>
       </c>
@@ -63908,7 +63908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="369" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>102</v>
       </c>
@@ -64069,7 +64069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>41</v>
       </c>
@@ -64230,7 +64230,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="371" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1163</v>
       </c>
@@ -64391,7 +64391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="372" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1165</v>
       </c>
@@ -64552,7 +64552,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="373" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1168</v>
       </c>
@@ -64713,7 +64713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="374" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>102</v>
       </c>
@@ -64874,7 +64874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="375" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1172</v>
       </c>
@@ -65035,7 +65035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="376" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1174</v>
       </c>
@@ -65196,7 +65196,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="377" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>102</v>
       </c>
@@ -65357,7 +65357,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="378" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>41</v>
       </c>
@@ -65518,7 +65518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="379" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>41</v>
       </c>
@@ -65679,7 +65679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="380" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>41</v>
       </c>
@@ -65840,7 +65840,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="381" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>41</v>
       </c>
@@ -66001,7 +66001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="382" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>102</v>
       </c>
@@ -66162,7 +66162,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="383" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1192</v>
       </c>
@@ -66323,7 +66323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="384" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>102</v>
       </c>
@@ -66484,7 +66484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="385" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>102</v>
       </c>
@@ -66645,7 +66645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="386" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>102</v>
       </c>
@@ -66806,7 +66806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="387" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>102</v>
       </c>
@@ -66967,7 +66967,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="388" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>102</v>
       </c>
@@ -67128,7 +67128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="389" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>102</v>
       </c>
@@ -67289,7 +67289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="390" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1212</v>
       </c>
@@ -67450,7 +67450,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="391" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1216</v>
       </c>
@@ -67611,7 +67611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="392" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>102</v>
       </c>
@@ -67772,7 +67772,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="393" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1221</v>
       </c>
@@ -67933,7 +67933,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="394" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1224</v>
       </c>
@@ -68094,7 +68094,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="395" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>102</v>
       </c>
@@ -68255,7 +68255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="396" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>102</v>
       </c>
@@ -68416,7 +68416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="397" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>102</v>
       </c>
@@ -68577,7 +68577,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="398" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>102</v>
       </c>
@@ -68738,7 +68738,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="399" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1237</v>
       </c>
@@ -68899,7 +68899,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="400" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>102</v>
       </c>
@@ -69060,7 +69060,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="401" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>102</v>
       </c>
@@ -69221,7 +69221,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="402" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>213</v>
       </c>
@@ -69382,7 +69382,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="403" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1249</v>
       </c>
@@ -69543,7 +69543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="404" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>102</v>
       </c>
@@ -69704,7 +69704,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="405" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>102</v>
       </c>
@@ -69865,7 +69865,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="406" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>102</v>
       </c>
@@ -70026,7 +70026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="407" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>102</v>
       </c>
@@ -70187,7 +70187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="408" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1263</v>
       </c>
@@ -70348,7 +70348,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="409" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1265</v>
       </c>
@@ -70509,7 +70509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="410" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>296</v>
       </c>
@@ -70670,7 +70670,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="411" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>102</v>
       </c>
@@ -70831,7 +70831,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="412" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>102</v>
       </c>
@@ -70992,7 +70992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="413" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>187</v>
       </c>
@@ -71153,7 +71153,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="414" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>187</v>
       </c>
@@ -71314,7 +71314,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="415" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1282</v>
       </c>
@@ -71475,7 +71475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="416" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>41</v>
       </c>
@@ -71636,7 +71636,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="417" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>187</v>
       </c>
@@ -71797,7 +71797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="418" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1290</v>
       </c>
@@ -71958,7 +71958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="419" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>41</v>
       </c>
@@ -72119,7 +72119,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="420" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1292</v>
       </c>
@@ -72280,7 +72280,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="421" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1104</v>
       </c>
@@ -72441,7 +72441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="422" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1300</v>
       </c>
@@ -72602,7 +72602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="423" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>102</v>
       </c>
@@ -72763,7 +72763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="424" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1237</v>
       </c>
@@ -72924,7 +72924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="425" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1309</v>
       </c>
@@ -73085,7 +73085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="426" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1312</v>
       </c>
@@ -73246,7 +73246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="427" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1315</v>
       </c>
@@ -73407,7 +73407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="428" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>431</v>
       </c>
@@ -73568,7 +73568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="429" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1320</v>
       </c>
@@ -73729,7 +73729,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="430" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>867</v>
       </c>
@@ -73890,7 +73890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="431" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1328</v>
       </c>
@@ -74051,7 +74051,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="432" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1332</v>
       </c>
@@ -74212,7 +74212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="433" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>318</v>
       </c>
@@ -74373,7 +74373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="434" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>373</v>
       </c>
@@ -74534,7 +74534,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="435" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1335</v>
       </c>
@@ -74695,7 +74695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="436" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>102</v>
       </c>
@@ -74856,7 +74856,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="437" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>309</v>
       </c>
@@ -75017,7 +75017,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="438" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1343</v>
       </c>
@@ -75178,7 +75178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="439" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1344</v>
       </c>
@@ -75339,7 +75339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="440" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1347</v>
       </c>
@@ -75500,7 +75500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="441" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1383</v>
       </c>
@@ -75661,7 +75661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="442" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1351</v>
       </c>
@@ -75822,7 +75822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="443" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1389</v>
       </c>
@@ -75983,7 +75983,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="444" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1353</v>
       </c>
@@ -76144,7 +76144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="445" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>609</v>
       </c>
@@ -76305,7 +76305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="446" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1355</v>
       </c>
@@ -76466,7 +76466,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="447" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>606</v>
       </c>
